--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Multivalued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
   </si>
   <si>
     <t xml:space="preserve">FIRST_NAME</t>
@@ -169,7 +172,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -203,6 +206,14 @@
     <font>
       <b val="true"/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,6 +325,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,10 +341,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,19 +349,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,13 +386,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -469,10 +484,13 @@
       <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="L4" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -480,72 +498,79 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
+      <c r="D5" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" s="14" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" s="15" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" s="14" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" s="15" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -554,10 +579,10 @@
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -566,22 +591,22 @@
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>29</v>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>31</v>
+      <c r="D10" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
@@ -589,170 +614,188 @@
       <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" s="14" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" s="15" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="L11" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="B12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="F12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="B13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="H13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="K13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="B14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="H14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="10" t="s">
+      <c r="B15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>23</v>
+      <c r="D16" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>10</v>
       </c>
     </row>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
     <t xml:space="preserve">FIRST_NAME</t>
@@ -386,13 +392,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14:L16"/>
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -487,10 +493,16 @@
       <c r="L4" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="M4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -499,16 +511,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>10</v>
@@ -519,7 +531,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -528,20 +540,20 @@
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>10</v>
@@ -597,16 +609,16 @@
     </row>
     <row r="10" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
@@ -653,10 +665,16 @@
       <c r="L11" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="M11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>11</v>
@@ -665,16 +683,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>10</v>
@@ -685,7 +703,7 @@
     </row>
     <row r="13" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>11</v>
@@ -694,16 +712,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>10</v>
@@ -714,7 +732,7 @@
     </row>
     <row r="14" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>11</v>
@@ -723,16 +741,16 @@
         <v>11</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>10</v>
@@ -743,7 +761,7 @@
     </row>
     <row r="15" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>11</v>
@@ -752,16 +770,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="H15" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>10</v>
@@ -772,7 +790,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>10</v>
@@ -781,16 +799,16 @@
         <v>11</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>10</v>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">FIRST_NAME</t>
@@ -178,7 +181,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -223,6 +226,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -294,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,6 +352,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,35 +364,39 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -392,13 +417,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4:N4"/>
+      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -499,10 +524,13 @@
       <c r="N4" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="O4" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -510,79 +538,86 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>26</v>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" s="15" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" s="17" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" s="15" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -591,10 +626,10 @@
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -603,22 +638,22 @@
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>32</v>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>34</v>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
@@ -626,37 +661,37 @@
       <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" s="15" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="8" t="s">
@@ -671,149 +706,167 @@
       <c r="N11" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="O11" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="F12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="B13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="F13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="H13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="K13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="B14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+      <c r="F14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="H14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="11" t="s">
+      <c r="B15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>26</v>
+      <c r="D16" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="11" t="s">
+      <c r="K16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="13" t="s">
         <v>10</v>
       </c>
     </row>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">FIRST_NAME</t>
@@ -420,10 +417,10 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -524,31 +521,29 @@
       <c r="N4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>10</v>
@@ -556,35 +551,33 @@
       <c r="L5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>10</v>
@@ -592,9 +585,7 @@
       <c r="L6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
@@ -602,7 +593,7 @@
       <c r="L7" s="12"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" s="17" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -644,16 +635,16 @@
     </row>
     <row r="10" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
@@ -706,31 +697,29 @@
       <c r="N11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>10</v>
@@ -738,63 +727,59 @@
       <c r="L12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="H13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="K13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="H14" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>10</v>
@@ -802,31 +787,29 @@
       <c r="L14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O14" s="13"/>
     </row>
     <row r="15" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="F15" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>10</v>
@@ -834,31 +817,29 @@
       <c r="L15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>10</v>
@@ -866,9 +847,7 @@
       <c r="L16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O16" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -49,12 +52,12 @@
     <t xml:space="preserve">PERSON</t>
   </si>
   <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Person</t>
   </si>
   <si>
-    <t xml:space="preserve">FALSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal Assignment</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIRST_NAME</t>
   </si>
   <si>
@@ -127,7 +133,7 @@
     <t xml:space="preserve">date_range_validation.py</t>
   </si>
   <si>
-    <t xml:space="preserve">$NAME</t>
+    <t xml:space="preserve">NAME</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -219,6 +225,19 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -247,20 +266,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -321,6 +327,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -329,6 +339,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,11 +359,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,7 +375,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -369,31 +383,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,13 +420,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4:O16"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -440,16 +446,16 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -458,32 +464,38 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -501,353 +513,406 @@
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="O4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="13"/>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="13"/>
+      <c r="I6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="17" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>11</v>
+      <c r="O11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>11</v>
+      <c r="F12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+      <c r="G13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>11</v>
+      <c r="I13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>11</v>
+      <c r="G14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="13"/>
+      <c r="I15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="13"/>
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
